--- a/biology/Zoologie/Fressnapf/Fressnapf.xlsx
+++ b/biology/Zoologie/Fressnapf/Fressnapf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Fressnapf est une chaine de magasins vendant des aliments et des accessoires pour animaux de compagnie, ainsi que des animaux de compagnie[réf. souhaitée]. La chaîne a été créée en 1990 en Allemagne par Torsten Toeller. Après avoir créé son premier magasin à Erkelenz en janvier 1990, des magasins sont maintenant ouverts dans 12 pays. C'est en Autriche qu'est ouvert le premier magasin Fressnapf à l'étranger[1]. Leur nom varie d'un pays à l'autre :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fressnapf est une chaine de magasins vendant des aliments et des accessoires pour animaux de compagnie, ainsi que des animaux de compagnie[réf. souhaitée]. La chaîne a été créée en 1990 en Allemagne par Torsten Toeller. Après avoir créé son premier magasin à Erkelenz en janvier 1990, des magasins sont maintenant ouverts dans 12 pays. C'est en Autriche qu'est ouvert le premier magasin Fressnapf à l'étranger. Leur nom varie d'un pays à l'autre :
 Fressnapf en Allemagne, en Suisse alémanique, en Autriche, en Hongrie et au Luxembourg ;
-Maxi Zoo en France (rachat de City Zoo, créé en 1993[2], par Fressnapf, qui devient Maxi Zoo en 2004), en Italie, en Pologne, au Danemark, en Irlande, en Suisse romande et en Belgique.</t>
+Maxi Zoo en France (rachat de City Zoo, créé en 1993, par Fressnapf, qui devient Maxi Zoo en 2004), en Italie, en Pologne, au Danemark, en Irlande, en Suisse romande et en Belgique.</t>
         </is>
       </c>
     </row>
